--- a/scripts/PREFINAL_SYLLABUS.xlsx
+++ b/scripts/PREFINAL_SYLLABUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLG\Intern\New folder (2)\CourseSessionPlan\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE88B7-6F99-4D9E-8E5D-C08B7FDE088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F03A7E-B143-4922-A2D2-839E1C3414AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="12" xr2:uid="{0C7F4397-F2F5-4877-B1A8-5447F5884D48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="14" xr2:uid="{0C7F4397-F2F5-4877-B1A8-5447F5884D48}"/>
   </bookViews>
   <sheets>
     <sheet name="FE_ALL" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
     <sheet name="TE_AIML" sheetId="13" r:id="rId12"/>
     <sheet name="TE_EXTC" sheetId="14" r:id="rId13"/>
     <sheet name="TE_ECS" sheetId="15" r:id="rId14"/>
-    <sheet name="TE_ME" sheetId="17" r:id="rId15"/>
-    <sheet name="TE_IT" sheetId="16" r:id="rId16"/>
-    <sheet name="TE_CE" sheetId="18" r:id="rId17"/>
+    <sheet name="TE_IT" sheetId="16" r:id="rId15"/>
+    <sheet name="TE_CE" sheetId="18" r:id="rId16"/>
+    <sheet name="TE_ME" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1147">
   <si>
     <t>Course Name</t>
   </si>
@@ -2779,9 +2779,6 @@
     <t>Basic theory, classification of turbines, theory of impulse and reaction turbines, estimation of work done, efficiency, characteristics of turbines, concept of draft tube and its types</t>
   </si>
   <si>
-    <t xml:space="preserve">HydraulicTurbines: </t>
-  </si>
-  <si>
     <t>Air compressor</t>
   </si>
   <si>
@@ -3320,9 +3317,6 @@
     <t>Basic Knowledge of databases</t>
   </si>
   <si>
-    <t xml:space="preserve">Divided Content </t>
-  </si>
-  <si>
     <t>Null and Alternative hypotheses. Types of errors. Neyman-Pearson lemmaMP and UMP tests.</t>
   </si>
   <si>
@@ -3570,6 +3564,99 @@
   </si>
   <si>
     <t>Introduction to System Software</t>
+  </si>
+  <si>
+    <t>Fluid Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluid Kinematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Concepts </t>
+  </si>
+  <si>
+    <t>Laminar Viscous flow</t>
+  </si>
+  <si>
+    <t>Flow through pipes</t>
+  </si>
+  <si>
+    <t>Hydrodynamic Boundary Layer Theory</t>
+  </si>
+  <si>
+    <t>Kinetics of Rigid Bodies</t>
+  </si>
+  <si>
+    <t>Velocity Analysis</t>
+  </si>
+  <si>
+    <t>Metal Cutting</t>
+  </si>
+  <si>
+    <t>Temperature in Metal Cutting</t>
+  </si>
+  <si>
+    <t>Gas Turbine Application</t>
+  </si>
+  <si>
+    <t>Basic Knowledge</t>
+  </si>
+  <si>
+    <t>Vapour Compression Refrigeration System</t>
+  </si>
+  <si>
+    <t>Thermal Comfort</t>
+  </si>
+  <si>
+    <t>Air Distribution System</t>
+  </si>
+  <si>
+    <t>HVACR</t>
+  </si>
+  <si>
+    <t>Application of HVACR</t>
+  </si>
+  <si>
+    <t>Automation and AI</t>
+  </si>
+  <si>
+    <t>Design of Pneumatic Circuit</t>
+  </si>
+  <si>
+    <t>Electro-Pneumatic Circuit</t>
+  </si>
+  <si>
+    <t>Robots and their Applications</t>
+  </si>
+  <si>
+    <t>Alogrithms</t>
+  </si>
+  <si>
+    <t>Regression Alogrithm</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering Design</t>
+  </si>
+  <si>
+    <t>Static Loads</t>
+  </si>
+  <si>
+    <t>Fluctuating Loads</t>
+  </si>
+  <si>
+    <t>Rolling Contact Bearing</t>
+  </si>
+  <si>
+    <t>Design and Selection of Belts</t>
+  </si>
+  <si>
+    <t>Design of Springs</t>
+  </si>
+  <si>
+    <t>Steam Generators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydraulicTurbines </t>
   </si>
 </sst>
 </file>
@@ -3990,7 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419CEDBC-10CB-4267-9386-200397D64D6F}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="V9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -4643,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F95B82-29E0-411A-87B3-0998D3FBB03E}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:B45"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5440,6 +5527,9 @@
       <c r="B47" s="4" t="s">
         <v>494</v>
       </c>
+      <c r="C47" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D47" s="4" t="s">
         <v>498</v>
       </c>
@@ -5454,6 +5544,9 @@
       <c r="B48" s="4" t="s">
         <v>494</v>
       </c>
+      <c r="C48" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D48" s="4" t="s">
         <v>499</v>
       </c>
@@ -5468,6 +5561,9 @@
       <c r="B49" s="4" t="s">
         <v>494</v>
       </c>
+      <c r="C49" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D49" s="4" t="s">
         <v>500</v>
       </c>
@@ -5481,6 +5577,9 @@
       </c>
       <c r="B50" s="4" t="s">
         <v>494</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>501</v>
@@ -5618,7 +5717,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6389,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE3987-F70A-4F98-8DE5-410DFF5E1848}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7461,8 +7560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C4C0B1-3218-4094-B9C9-A2E3BE04A7F3}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7489,7 +7588,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7817,6 +7916,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>655</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>658</v>
       </c>
@@ -7828,6 +7933,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>655</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>660</v>
       </c>
@@ -7839,6 +7950,12 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>655</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>662</v>
       </c>
@@ -7850,6 +7967,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>655</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>664</v>
       </c>
@@ -7861,6 +7984,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>655</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>666</v>
       </c>
@@ -8484,6 +8613,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8493,7 +8623,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8520,7 +8650,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9323,7 +9453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>833</v>
       </c>
@@ -9335,6 +9465,9 @@
       </c>
       <c r="D49" s="4" t="s">
         <v>843</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9343,11 +9476,1757 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6284C8-5DC0-43BE-97E3-EC6EFAA5A97A}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E39" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="E40" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="E42" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="E50" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E53" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="E55" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="E56" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC05E86D-EB74-4395-9A71-1759556F64FB}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="16384" width="9.109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E37" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E39" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E40" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F85281-0900-4E63-92BD-E320E48010BA}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9365,16 +11244,16 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9385,8 +11264,8 @@
       <c r="B2" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>1139</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>848</v>
@@ -9402,8 +11281,8 @@
       <c r="B3" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
+      <c r="C3" s="3" t="s">
+        <v>1140</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>849</v>
@@ -9419,8 +11298,8 @@
       <c r="B4" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C4" s="3">
-        <v>3</v>
+      <c r="C4" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>850</v>
@@ -9436,8 +11315,8 @@
       <c r="B5" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C5" s="3">
-        <v>4</v>
+      <c r="C5" s="3" t="s">
+        <v>1142</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>851</v>
@@ -9453,8 +11332,8 @@
       <c r="B6" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C6" s="3">
-        <v>5</v>
+      <c r="C6" s="3" t="s">
+        <v>1143</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>852</v>
@@ -9470,8 +11349,8 @@
       <c r="B7" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C7" s="3">
-        <v>6</v>
+      <c r="C7" s="3" t="s">
+        <v>1144</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>853</v>
@@ -9487,8 +11366,8 @@
       <c r="B8" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
+      <c r="C8" s="3" t="s">
+        <v>1145</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>856</v>
@@ -9505,7 +11384,7 @@
         <v>855</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>860</v>
+        <v>1146</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>859</v>
@@ -9539,10 +11418,10 @@
         <v>855</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
@@ -9556,10 +11435,10 @@
         <v>855</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -9572,11 +11451,11 @@
       <c r="B13" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="C13" s="3">
-        <v>6</v>
+      <c r="C13" s="3" t="s">
+        <v>1126</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -9584,16 +11463,16 @@
     </row>
     <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>867</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>868</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -9601,16 +11480,16 @@
     </row>
     <row r="15" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
+        <v>865</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1128</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E15" s="3">
         <v>8</v>
@@ -9618,16 +11497,16 @@
     </row>
     <row r="16" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
+        <v>865</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1129</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
@@ -9635,16 +11514,16 @@
     </row>
     <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4</v>
+        <v>865</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1130</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -9652,16 +11531,16 @@
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5</v>
+        <v>865</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1131</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
@@ -9669,16 +11548,16 @@
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6</v>
+        <v>865</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1132</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -9686,16 +11565,16 @@
     </row>
     <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>875</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>876</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
@@ -9703,16 +11582,16 @@
     </row>
     <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
+        <v>873</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1134</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E21" s="3">
         <v>8</v>
@@ -9720,16 +11599,16 @@
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
+        <v>873</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1135</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E22" s="3">
         <v>8</v>
@@ -9737,16 +11616,16 @@
     </row>
     <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4</v>
+        <v>873</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1136</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E23" s="3">
         <v>7</v>
@@ -9754,16 +11633,16 @@
     </row>
     <row r="24" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
+        <v>873</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1137</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E24" s="3">
         <v>6</v>
@@ -9771,16 +11650,16 @@
     </row>
     <row r="25" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6</v>
+        <v>873</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1138</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
@@ -9788,16 +11667,16 @@
     </row>
     <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>884</v>
       </c>
       <c r="E26" s="3">
         <v>6</v>
@@ -9805,16 +11684,16 @@
     </row>
     <row r="27" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="C27" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>886</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>887</v>
       </c>
       <c r="E27" s="3">
         <v>10</v>
@@ -9822,16 +11701,16 @@
     </row>
     <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E28" s="3">
         <v>8</v>
@@ -9839,16 +11718,16 @@
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E29" s="3">
         <v>4</v>
@@ -9856,16 +11735,16 @@
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E30" s="3">
         <v>4</v>
@@ -9873,16 +11752,16 @@
     </row>
     <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E31" s="3">
         <v>4</v>
@@ -9890,16 +11769,16 @@
     </row>
     <row r="32" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>897</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>898</v>
       </c>
       <c r="E32" s="3">
         <v>8</v>
@@ -9907,16 +11786,16 @@
     </row>
     <row r="33" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2</v>
+        <v>895</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1125</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E33" s="3">
         <v>5</v>
@@ -9924,16 +11803,16 @@
     </row>
     <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
@@ -9941,16 +11820,16 @@
     </row>
     <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E35" s="3">
         <v>6</v>
@@ -9958,16 +11837,16 @@
     </row>
     <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E36" s="3">
         <v>5</v>
@@ -9975,16 +11854,16 @@
     </row>
     <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E37" s="3">
         <v>8</v>
@@ -9992,16 +11871,16 @@
     </row>
     <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>909</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>910</v>
       </c>
       <c r="E38" s="3">
         <v>8</v>
@@ -10009,16 +11888,16 @@
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E39" s="3">
         <v>7</v>
@@ -10026,16 +11905,16 @@
     </row>
     <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E40" s="3">
         <v>7</v>
@@ -10043,16 +11922,16 @@
     </row>
     <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E41" s="3">
         <v>6</v>
@@ -10060,16 +11939,16 @@
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
@@ -10077,16 +11956,16 @@
     </row>
     <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E43" s="3">
         <v>6</v>
@@ -10094,1749 +11973,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6284C8-5DC0-43BE-97E3-EC6EFAA5A97A}">
-  <dimension ref="A1:E57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E6" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E13" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="E25" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="E28" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="E29" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="E31" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="E32" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="E33" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="E34" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="E36" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="E39" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="E40" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="E42" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="E45" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="E46" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="E47" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="E49" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="E50" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="E53" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="E54" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="E55" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="E56" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC05E86D-EB74-4395-9A71-1759556F64FB}">
-  <dimension ref="A1:E43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="72.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="3"/>
-    <col min="6" max="16384" width="9.109375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E8" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E9" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E16" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E19" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E23" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E27" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E29" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E30" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E31" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E32" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E34" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E36" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E37" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E38" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E39" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E40" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E41" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E42" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11845,7 +11981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C344-91F9-479C-8362-9ADF199A8624}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -12317,7 +12453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>146</v>
       </c>
@@ -12402,7 +12538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D7175A-4ADD-4779-B241-6654F786B729}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E27" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -12874,7 +13010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>146</v>
       </c>
@@ -12958,8 +13094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1B8286-622D-47A1-9696-7FE7FBC9378E}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13430,7 +13566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>146</v>
       </c>
@@ -13514,7 +13650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA061A4-C898-4168-B4F4-E1BCC397C902}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E27" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -14071,7 +14207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62AC6C8-9E2B-44C5-A7CA-C7D348409C93}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -14622,8 +14758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7478D1-27E1-4270-B171-409E2FF94A0F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15094,7 +15230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>146</v>
       </c>
@@ -15178,8 +15314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514B3887-D7C6-475F-A667-9C36CC6A53C2}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15682,7 +15818,7 @@
         <v>330</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -15798,7 +15934,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15824,7 +15960,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15937,8 +16073,8 @@
       <c r="B8" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
+      <c r="C8" s="4" t="s">
+        <v>1118</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>358</v>
@@ -15954,8 +16090,8 @@
       <c r="B9" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="4">
-        <v>2</v>
+      <c r="C9" s="4" t="s">
+        <v>1117</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>359</v>
@@ -15971,8 +16107,8 @@
       <c r="B10" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C10" s="4">
-        <v>3</v>
+      <c r="C10" s="4" t="s">
+        <v>1116</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>360</v>
@@ -15988,8 +16124,8 @@
       <c r="B11" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C11" s="4">
-        <v>4</v>
+      <c r="C11" s="4" t="s">
+        <v>1119</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>361</v>
@@ -16005,8 +16141,8 @@
       <c r="B12" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="4">
-        <v>5</v>
+      <c r="C12" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>362</v>
@@ -16022,8 +16158,8 @@
       <c r="B13" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="4">
-        <v>6</v>
+      <c r="C13" s="4" t="s">
+        <v>1121</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>363</v>
@@ -16039,8 +16175,8 @@
       <c r="B14" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
+      <c r="C14" s="4" t="s">
+        <v>1122</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>365</v>
@@ -16073,8 +16209,8 @@
       <c r="B16" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C16" s="4">
-        <v>3</v>
+      <c r="C16" s="4" t="s">
+        <v>1123</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>367</v>
